--- a/trunk/成品/R1/城乡居民健康档案基本数据集/城乡居民健康档案基本数据集.xlsx
+++ b/trunk/成品/R1/城乡居民健康档案基本数据集/城乡居民健康档案基本数据集.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="个人基本信息" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
   <si>
     <t>数据元标识符（DE）</t>
   </si>
@@ -54,192 +54,1917 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>个人基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康体检信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康体检</t>
+  </si>
+  <si>
+    <t>新生儿家庭访视信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童保健</t>
+  </si>
+  <si>
+    <t>儿童健康检查信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇女保健</t>
+  </si>
+  <si>
+    <t>产前随访服务信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产后访视服务信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产后42天健康体检信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属标准编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属标准名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病控制</t>
+  </si>
+  <si>
+    <t>5.2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防接种卡信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染病报告卡信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业病报告卡信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食源性疾病报告卡信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管理</t>
+  </si>
+  <si>
+    <t>高血压患者随访信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2型糖尿病患者随访信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重性精神疾病患者管理信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊摘要信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>5.2.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院摘要信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会诊信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转院(诊)信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城乡居民健康档案基本数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>内部标识符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本信息</t>
-  </si>
-  <si>
-    <t>个人基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康体检信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康体检</t>
-  </si>
-  <si>
-    <t>新生儿家庭访视信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿童保健</t>
-  </si>
-  <si>
-    <t>儿童健康检查信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妇女保健</t>
-  </si>
-  <si>
-    <t>产前随访服务信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产后访视服务信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产后42天健康体检信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属标准编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属标准名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WS365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病控制</t>
-  </si>
-  <si>
-    <t>5.2.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预防接种卡信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传染病报告卡信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业病报告卡信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食源性疾病报告卡信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病管理</t>
-  </si>
-  <si>
-    <t>高血压患者随访信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2型糖尿病患者随访信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重性精神疾病患者管理信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊摘要信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗服务</t>
-  </si>
-  <si>
-    <t>5.2.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院摘要信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会诊信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转院(诊)信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城乡居民健康档案基本数据集</t>
+  </si>
+  <si>
+    <t>HDSD00.01.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE01.01.009.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城乡居民健康档案编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城区居民个人健康档案的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE02.01.039.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人在公安户籍管理部门正式登记注册的姓氏和名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A..50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.003</t>
+  </si>
+  <si>
+    <t>DE02.01.040.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人生理性别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T2261.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.004</t>
+  </si>
+  <si>
+    <t>DE02.01.005.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人出生当天的公元纪年日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.005</t>
+  </si>
+  <si>
+    <t>DE02.01.031.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证件类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人身份证件类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS 364.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.101 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证件类别代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.006</t>
+  </si>
+  <si>
+    <t>DE02.01.030.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证件号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民身份证件上唯一的、终身不变的法定符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN..18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.007</t>
+  </si>
+  <si>
+    <t>DE08.10.007.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人工作单位的组织机构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A..70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.008</t>
+  </si>
+  <si>
+    <t>DE02.01.010.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人的电话号码。包括国际、国内区号和分机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N..20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.009</t>
+  </si>
+  <si>
+    <t>DE02.01.041.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人在公安户籍管理部门正式登记注册的姓氏和名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.010</t>
+  </si>
+  <si>
+    <t>联系人电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人的电话号码，包括国际、国内区号和分机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A..20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.011</t>
+  </si>
+  <si>
+    <t>DE02.01.003.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常住地址户籍标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识本人的常住地址是否为户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.012</t>
+  </si>
+  <si>
+    <t>DE02.01.025.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识本人所属民族的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GB 3304-1991 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国各民族名称的罗马字母拼写法和代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.013</t>
+  </si>
+  <si>
+    <t>DE04.50.001.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ABO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血型代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ABO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血型系统决定的血型类别代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域嗲吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：实验室检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV04.50.005 ABO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血型代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.014</t>
+  </si>
+  <si>
+    <t>DE04.50.010.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血型代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血型系统决定的血型类别代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.Rh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2.Rh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不详</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.015</t>
+  </si>
+  <si>
+    <t>学历代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人受教育最高程度类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GB/T 4658-2006 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学历代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.016</t>
+  </si>
+  <si>
+    <t>DE02.01.052.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人当前职业类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN..3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GB/T 6565-2009 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职业分类与代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.017</t>
+  </si>
+  <si>
+    <t>DE02.01.018.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人当前婚姻状况类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GB/T 2261.2-2003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人基本信息与分类代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>婚姻状况代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.018</t>
+  </si>
+  <si>
+    <t>DE07.00.007.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗费用支付方式代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊者或住院者对其所发生的医疗费用支付的方式代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：卫生费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV07.10.003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医疗费用来源类别代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.019</t>
+  </si>
+  <si>
+    <t>DE05.01.022.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物过敏史标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识本人既往有无药物过敏经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.020</t>
+  </si>
+  <si>
+    <t>药物过敏源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱发本人过敏性疾病的药物代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N..3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：医疗诊断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV05.01.038</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过敏源代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.021</t>
+  </si>
+  <si>
+    <t>DE03.00.021.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境危险因素暴露类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人接触环境危险因素的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域嗲吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：健康危险因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV03.00.301 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境危险因素暴露类别代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.022</t>
+  </si>
+  <si>
+    <t>DE02.10.021.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既往患病种类代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人既往所患疾病种类的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：健康史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.10.005 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>既往常见疾病种类代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.023</t>
+  </si>
+  <si>
+    <t>DE05.01.035.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既往患病确诊日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本人既往所患疾病作出明确诊断的公元纪年日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.024</t>
+  </si>
+  <si>
+    <t>DE02.10.062.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术史标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识本人既往有无手术经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.025</t>
+  </si>
+  <si>
+    <t>DE02.10.061.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本人既往接受手术操作详细情况的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN..100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.026</t>
+  </si>
+  <si>
+    <t>DE06.00.095.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术操作日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本人实施手术操作时的公元纪年日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.027</t>
+  </si>
+  <si>
+    <t>DE02.10.069.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤史标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示既往有无外伤经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.028</t>
+  </si>
+  <si>
+    <t>DE02.10.068.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示既往发生的外伤名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.029</t>
+  </si>
+  <si>
+    <t>DE02.10.067.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤发生的公元纪年日期和时间的完整描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.030</t>
+  </si>
+  <si>
+    <t>DE06.00.106.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血史标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示既往有无输血经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.031</t>
+  </si>
+  <si>
+    <t>DE06.00.107.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示既往输血的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.032</t>
+  </si>
+  <si>
+    <t>DE06.00.105.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血时的公元纪年日期和时间的完整描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.033</t>
+  </si>
+  <si>
+    <t>DE02.10.095.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族性疾病名称代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人近亲中患有的家族性疾病名称的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.034</t>
+  </si>
+  <si>
+    <t>DE02.10.024.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者与本人关系代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人近亲中患病成员与本人关系类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T4761</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.035</t>
+  </si>
+  <si>
+    <t>DE02.10.026.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传性疾病史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三代以内有血缘关系的家族成员中所患遗传疾病史的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.036</t>
+  </si>
+  <si>
+    <t>DE05.10.006.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疾情况代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人残疾种类的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS364.11 卫生信息数据元值域代码 第11部分：医学评估 CV05.10.001 残疾情况代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.037</t>
+  </si>
+  <si>
+    <t>DE03.00.099.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭厨房排风设施标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识有无家庭厨房排风设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.038</t>
+  </si>
+  <si>
+    <t>DE03.00.006.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭厨房排风设施类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人家庭中所使用的厨房排风设施的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域嗲吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：健康危险因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV03.00.302 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厨房排风设施类别代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.039</t>
+  </si>
+  <si>
+    <t>DE03.00.050.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭燃料类型类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人家庭中所使用的燃料类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域嗲吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：健康危险因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV03.00.303 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>燃料类型类别代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.040</t>
+  </si>
+  <si>
+    <t>DE03.00.082.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭饮水类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭饮水的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域嗲吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：健康危险因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV03.00.115 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮水类别代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.041</t>
+  </si>
+  <si>
+    <t>DE03.00.005.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭厕所类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人家庭中所使用的厕所的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域嗲吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：健康危险因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV03.00.304 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厕所类别代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.042</t>
+  </si>
+  <si>
+    <t>DE03.00.049.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭禽畜栏类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人家庭中所使用的禽畜养殖场所的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 单设 2室内 3室外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：健康史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.10.005 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>既往常见疾病种类代码表</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +1972,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,16 +1996,68 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -289,78 +2066,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,7 +2400,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F21" sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -671,7 +2416,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -680,214 +2425,214 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -907,26 +2652,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -947,25 +2692,947 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="38.25">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5">
+      <c r="A14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5">
+      <c r="A19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="38.25">
+      <c r="A20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="38.25">
+      <c r="A22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="38.25">
+      <c r="A23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25">
+      <c r="A24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="25.5">
+      <c r="A35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="38.25">
+      <c r="A38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="38.25">
+      <c r="A40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="38.25">
+      <c r="A41" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="38.25">
+      <c r="A42" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="38.25">
+      <c r="A43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/成品/R1/城乡居民健康档案基本数据集/城乡居民健康档案基本数据集.xlsx
+++ b/trunk/成品/R1/城乡居民健康档案基本数据集/城乡居民健康档案基本数据集.xlsx
@@ -2176,11 +2176,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2480,7 +2480,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:F21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2750,38 +2750,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -2962,7 +2962,7 @@
       <c r="B11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3509,7 +3509,7 @@
       <c r="B36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>221</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -3725,7 +3725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/trunk/成品/R1/城乡居民健康档案基本数据集/城乡居民健康档案基本数据集.xlsx
+++ b/trunk/成品/R1/城乡居民健康档案基本数据集/城乡居民健康档案基本数据集.xlsx
@@ -50,6 +50,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不同数据元标识号相同</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C39" authorId="0">
       <text>
         <r>
@@ -610,8 +636,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WS364.9 </t>
+    <t>HDSD00.01.014</t>
+  </si>
+  <si>
+    <t>DE04.50.010.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血型代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血型系统决定的血型类别代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.Rh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2.Rh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不详</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.015</t>
+  </si>
+  <si>
+    <t>学历代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人受教育最高程度类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GB/T 4658-2006 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学历代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.016</t>
+  </si>
+  <si>
+    <t>DE02.01.052.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人当前职业类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN..3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.017</t>
+  </si>
+  <si>
+    <t>DE02.01.018.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人当前婚姻状况类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GB/T 2261.2-2003 </t>
     </r>
     <r>
       <rPr>
@@ -621,7 +814,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>卫生信息数据元值域嗲吗</t>
+      <t>个人基本信息与分类代码</t>
     </r>
     <r>
       <rPr>
@@ -640,16 +833,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
+      <t>婚姻状况代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.018</t>
+  </si>
+  <si>
+    <t>DE07.00.007.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗费用支付方式代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊者或住院者对其所发生的医疗费用支付的方式代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.13 </t>
     </r>
     <r>
       <rPr>
@@ -659,7 +864,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>部分：实验室检查</t>
+      <t>卫生信息数据元值域代码</t>
     </r>
     <r>
       <rPr>
@@ -668,7 +873,91 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> CV04.50.005 ABO</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：卫生费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV07.10.003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医疗费用来源类别代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.019</t>
+  </si>
+  <si>
+    <t>DE05.01.022.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物过敏史标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识本人既往有无药物过敏经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.020</t>
+  </si>
+  <si>
+    <t>药物过敏源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱发本人过敏性疾病的药物代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N..3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.10 </t>
     </r>
     <r>
       <rPr>
@@ -678,20 +967,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>血型代码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.014</t>
-  </si>
-  <si>
-    <t>DE04.50.010.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Rh</t>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -701,13 +986,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>血型代码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>按照</t>
+      <t>第</t>
     </r>
     <r>
       <rPr>
@@ -716,7 +995,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Rh</t>
+      <t>13</t>
     </r>
     <r>
       <rPr>
@@ -726,17 +1005,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>血型系统决定的血型类别代码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.Rh</t>
+      <t>部分：医疗诊断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV05.01.038</t>
     </r>
     <r>
       <rPr>
@@ -746,16 +1024,43 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>阳性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2.Rh</t>
+      <t>过敏源代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.021</t>
+  </si>
+  <si>
+    <t>DE03.00.021.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境危险因素暴露类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人接触环境危险因素的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.022</t>
+  </si>
+  <si>
+    <t>DE02.10.021.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既往患病种类代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人既往所患疾病种类的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.4 </t>
     </r>
     <r>
       <rPr>
@@ -765,7 +1070,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>阴性</t>
+      <t>卫生信息数据元值域代码</t>
     </r>
     <r>
       <rPr>
@@ -774,7 +1079,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 3.</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -784,24 +1089,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>不详</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.015</t>
-  </si>
-  <si>
-    <t>学历代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人受教育最高程度类别的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GB/T 4658-2006 </t>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -811,47 +1108,429 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>学历代码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.016</t>
-  </si>
-  <si>
-    <t>DE02.01.052.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人当前职业类别的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN..3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.017</t>
-  </si>
-  <si>
-    <t>DE02.01.018.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚姻状况类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人当前婚姻状况类别的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GB/T 2261.2-2003 </t>
+      <t>部分：健康史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.10.005 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>既往常见疾病种类代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.023</t>
+  </si>
+  <si>
+    <t>DE05.01.035.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既往患病确诊日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本人既往所患疾病作出明确诊断的公元纪年日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.024</t>
+  </si>
+  <si>
+    <t>DE02.10.062.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术史标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识本人既往有无手术经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.025</t>
+  </si>
+  <si>
+    <t>DE02.10.061.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本人既往接受手术操作详细情况的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN..100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.026</t>
+  </si>
+  <si>
+    <t>DE06.00.095.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术操作日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本人实施手术操作时的公元纪年日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.027</t>
+  </si>
+  <si>
+    <t>DE02.10.069.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤史标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示既往有无外伤经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.028</t>
+  </si>
+  <si>
+    <t>DE02.10.068.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示既往发生的外伤名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.029</t>
+  </si>
+  <si>
+    <t>DE02.10.067.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤发生的公元纪年日期和时间的完整描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.030</t>
+  </si>
+  <si>
+    <t>DE06.00.106.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血史标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示既往有无输血经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.031</t>
+  </si>
+  <si>
+    <t>DE06.00.107.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示既往输血的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.032</t>
+  </si>
+  <si>
+    <t>DE06.00.105.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血时的公元纪年日期和时间的完整描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.033</t>
+  </si>
+  <si>
+    <t>DE02.10.095.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族性疾病名称代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人近亲中患有的家族性疾病名称的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.034</t>
+  </si>
+  <si>
+    <t>DE02.10.024.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者与本人关系代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人近亲中患病成员与本人关系类别的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T4761</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.035</t>
+  </si>
+  <si>
+    <t>DE02.10.026.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传性疾病史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三代以内有血缘关系的家族成员中所患遗传疾病史的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.036</t>
+  </si>
+  <si>
+    <t>DE05.10.006.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疾情况代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人残疾种类的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS364.11 卫生信息数据元值域代码 第11部分：医学评估 CV05.10.001 残疾情况代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.037</t>
+  </si>
+  <si>
+    <t>DE03.00.099.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭厨房排风设施标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识有无家庭厨房排风设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.038</t>
+  </si>
+  <si>
+    <t>DE03.00.006.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭厨房排风设施类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人家庭中所使用的厨房排风设施的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.039</t>
+  </si>
+  <si>
+    <t>DE03.00.050.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭燃料类型类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人家庭中所使用的燃料类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.040</t>
+  </si>
+  <si>
+    <t>DE03.00.082.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭饮水类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭饮水的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.041</t>
+  </si>
+  <si>
+    <t>DE03.00.005.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭厕所类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人家庭中所使用的厕所的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDSD00.01.042</t>
+  </si>
+  <si>
+    <t>DE03.00.049.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭禽畜栏类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人家庭中所使用的禽畜养殖场所的类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 单设 2室内 3室外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS364.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：健康史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.10.005 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>既往常见疾病种类代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS 364.3 </t>
     </r>
     <r>
       <rPr>
@@ -861,7 +1540,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>个人基本信息与分类代码</t>
+      <t>卫生信息数据元值域代码</t>
     </r>
     <r>
       <rPr>
@@ -880,28 +1559,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>婚姻状况代码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.018</t>
-  </si>
-  <si>
-    <t>DE07.00.007.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗费用支付方式代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊者或住院者对其所发生的医疗费用支付的方式代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS364.13 </t>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -911,7 +1578,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>卫生信息数据元值域代码</t>
+      <t>部分：人口学及社会经济学特征</t>
     </r>
     <r>
       <rPr>
@@ -920,7 +1587,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> CV02.01.101 </t>
     </r>
     <r>
       <rPr>
@@ -930,16 +1597,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13</t>
+      <t>身份证件类别代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GB/T 6565-2009 </t>
     </r>
     <r>
       <rPr>
@@ -949,1092 +1613,34 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>部分：卫生费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV07.10.003 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医疗费用来源类别代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.019</t>
-  </si>
-  <si>
-    <t>DE05.01.022.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药物过敏史标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识本人既往有无药物过敏经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.020</t>
-  </si>
-  <si>
-    <t>药物过敏源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诱发本人过敏性疾病的药物代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N..3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS364.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：医疗诊断</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV05.01.038</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过敏源代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.021</t>
-  </si>
-  <si>
-    <t>DE03.00.021.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境危险因素暴露类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人接触环境危险因素的类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS364.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域嗲吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：健康危险因素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV03.00.301 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>环境危险因素暴露类别代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.022</t>
-  </si>
-  <si>
-    <t>DE02.10.021.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既往患病种类代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人既往所患疾病种类的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS364.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：健康史</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV02.10.005 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>既往常见疾病种类代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.023</t>
-  </si>
-  <si>
-    <t>DE05.01.035.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既往患病确诊日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对本人既往所患疾病作出明确诊断的公元纪年日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.024</t>
-  </si>
-  <si>
-    <t>DE02.10.062.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术史标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识本人既往有无手术经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.025</t>
-  </si>
-  <si>
-    <t>DE02.10.061.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对本人既往接受手术操作详细情况的描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN..100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.026</t>
-  </si>
-  <si>
-    <t>DE06.00.095.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术操作日期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对本人实施手术操作时的公元纪年日期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.027</t>
-  </si>
-  <si>
-    <t>DE02.10.069.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤史标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示既往有无外伤经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.028</t>
-  </si>
-  <si>
-    <t>DE02.10.068.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示既往发生的外伤名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.029</t>
-  </si>
-  <si>
-    <t>DE02.10.067.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤发生时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤发生的公元纪年日期和时间的完整描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.030</t>
-  </si>
-  <si>
-    <t>DE06.00.106.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血史标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示既往有无输血经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.031</t>
-  </si>
-  <si>
-    <t>DE06.00.107.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示既往输血的原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.032</t>
-  </si>
-  <si>
-    <t>DE06.00.105.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血日期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血时的公元纪年日期和时间的完整描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.033</t>
-  </si>
-  <si>
-    <t>DE02.10.095.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族性疾病名称代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人近亲中患有的家族性疾病名称的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.034</t>
-  </si>
-  <si>
-    <t>DE02.10.024.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者与本人关系代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人近亲中患病成员与本人关系类别的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB/T4761</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.035</t>
-  </si>
-  <si>
-    <t>DE02.10.026.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗传性疾病史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三代以内有血缘关系的家族成员中所患遗传疾病史的描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.036</t>
-  </si>
-  <si>
-    <t>DE05.10.006.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>残疾情况代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人残疾种类的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WS364.11 卫生信息数据元值域代码 第11部分：医学评估 CV05.10.001 残疾情况代码表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.037</t>
-  </si>
-  <si>
-    <t>DE03.00.099.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭厨房排风设施标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识有无家庭厨房排风设施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.038</t>
-  </si>
-  <si>
-    <t>DE03.00.006.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭厨房排风设施类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人家庭中所使用的厨房排风设施的类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS364.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域嗲吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：健康危险因素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV03.00.302 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厨房排风设施类别代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.039</t>
-  </si>
-  <si>
-    <t>DE03.00.050.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭燃料类型类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人家庭中所使用的燃料类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS364.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域嗲吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：健康危险因素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV03.00.303 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>燃料类型类别代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.040</t>
-  </si>
-  <si>
-    <t>DE03.00.082.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭饮水类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭饮水的类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS364.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域嗲吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：健康危险因素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV03.00.115 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>饮水类别代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.041</t>
-  </si>
-  <si>
-    <t>DE03.00.005.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭厕所类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人家庭中所使用的厕所的类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDSD00.01.042</t>
-  </si>
-  <si>
-    <t>DE03.00.049.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭禽畜栏类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人家庭中所使用的禽畜养殖场所的类别代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 单设 2室内 3室外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS364.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：健康史</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV02.10.005 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>既往常见疾病种类代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WS 364.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：人口学及社会经济学特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV02.01.101 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证件类别代码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GB/T 6565-2009 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>职业分类与代码</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WS364.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫生信息数据元值域嗲吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分：健康危险因素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> CV03.00.304 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厕所类别代码表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>WS364.9 卫生信息数据元值域代码第9部分：实验室检查 CV04.50.005 ABO血型代码</t>
+  </si>
+  <si>
+    <t>WS364.5 卫生信息数据元值域代码第5部分：健康危险因素 CV03.00.301 环境危险因素暴露类别代码表</t>
+  </si>
+  <si>
+    <t>WS364.5 卫生信息数据元值域代码第5部分：健康危险因素 CV03.00.302 厨房排风设施类别代码表</t>
+  </si>
+  <si>
+    <t>WS364.5 卫生信息数据元值域代码第5部分：健康危险因素 CV03.00.303 燃料类型类别代码表</t>
+  </si>
+  <si>
+    <t>WS364.5 卫生信息数据元值域代码第5部分：健康危险因素 CV03.00.115 饮水类别代码表</t>
+  </si>
+  <si>
+    <t>WS364.5 卫生信息数据元值域代码第5部分：健康危险因素 CV03.00.304 厕所类别代码表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2089,19 +1695,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2735,7 +2328,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2889,7 +2482,7 @@
         <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3061,44 +2654,44 @@
         <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>127</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>75</v>
@@ -3107,44 +2700,44 @@
         <v>88</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>75</v>
@@ -3153,21 +2746,21 @@
         <v>88</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>75</v>
@@ -3176,21 +2769,21 @@
         <v>76</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>116</v>
@@ -3202,39 +2795,39 @@
     </row>
     <row r="22" spans="1:7" ht="25.5">
       <c r="A22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.5">
       <c r="A23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>75</v>
@@ -3243,21 +2836,21 @@
         <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.5">
       <c r="A24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>75</v>
@@ -3266,21 +2859,21 @@
         <v>88</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>82</v>
@@ -3292,16 +2885,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>116</v>
@@ -3313,58 +2906,58 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>116</v>
@@ -3376,58 +2969,58 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>116</v>
@@ -3439,58 +3032,58 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="25.5">
       <c r="A35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>75</v>
@@ -3499,21 +3092,21 @@
         <v>88</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
@@ -3522,42 +3115,42 @@
         <v>88</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="25.5">
       <c r="A38" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>75</v>
@@ -3566,21 +3159,21 @@
         <v>88</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>116</v>
@@ -3592,16 +3185,16 @@
     </row>
     <row r="40" spans="1:7" ht="25.5">
       <c r="A40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>75</v>
@@ -3610,21 +3203,21 @@
         <v>76</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5">
       <c r="A41" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>75</v>
@@ -3633,21 +3226,21 @@
         <v>76</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5">
       <c r="A42" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>75</v>
@@ -3656,21 +3249,21 @@
         <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="25.5">
       <c r="A43" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>75</v>
@@ -3684,25 +3277,25 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
